--- a/data/trans_camb/P3A_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Estudios-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,03</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,6; 4,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 4,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,97; 10,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,26; 5,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 4,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,26; 13,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,59; 5,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 4,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,55; 11,64</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>366,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>403,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>394,2%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,66; 311,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,69; 267,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>196,08; 655,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,93; 264,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,22; 201,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>246,2; 617,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,61; 243,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,14; 190,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>275,31; 546,18</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 0,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; -0,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 0,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 1,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 0,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 1,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 0,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; -0,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 0,8</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,95; 35,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,56; -12,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,07; 47,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,09; 76,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,57; 26,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,64; 89,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,3; 29,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,79; -11,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,98; 47,81</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,06; -0,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,48; -5,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,14; -1,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 3,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,22; -0,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; 0,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 0,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,03; -4,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,74; -1,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,79%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,65%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,97; 2,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,85; -48,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,97; -17,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,96; 45,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,17; -10,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,82; 9,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,51; 6,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,31; -44,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,85; -17,86</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 0,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; -0,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 1,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 2,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 0,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,11; 3,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 1,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; -0,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 2,0</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,75%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,62%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,79%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,01; 22,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,44; -19,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,54; 37,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,5; 80,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,9; 29,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,35; 118,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 40,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,5; -6,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,32; 59,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P3A_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,97</t>
+          <t>1,6; 4,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,17</t>
+          <t>0,79; 4,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,76</t>
+          <t>5,85; 10,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,71</t>
+          <t>2,27; 5,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,8</t>
+          <t>1,01; 4,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,37</t>
+          <t>9,48; 13,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,0</t>
+          <t>2,43; 4,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,13</t>
+          <t>1,54; 4,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,55; 11,64</t>
+          <t>8,68; 11,67</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,66; 311,62</t>
+          <t>48,38; 311,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,69; 267,45</t>
+          <t>23,99; 257,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>196,08; 655,37</t>
+          <t>184,45; 662,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>62,93; 264,4</t>
+          <t>67,81; 266,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,22; 201,46</t>
+          <t>26,75; 213,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>246,2; 617,32</t>
+          <t>274,05; 678,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>86,61; 243,66</t>
+          <t>83,65; 226,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,14; 190,31</t>
+          <t>52,17; 193,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>275,31; 546,18</t>
+          <t>280,87; 550,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,59</t>
+          <t>-1,49; 0,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; -0,28</t>
+          <t>-2,06; -0,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,92</t>
+          <t>-1,43; 0,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,0</t>
+          <t>-0,85; 1,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,3</t>
+          <t>-1,44; 0,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,19</t>
+          <t>-0,66; 1,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,46</t>
+          <t>-0,89; 0,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; -0,24</t>
+          <t>-1,48; -0,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,8</t>
+          <t>-0,61; 0,81</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,95; 35,37</t>
+          <t>-53,15; 26,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,56; -12,33</t>
+          <t>-69,56; -13,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,07; 47,68</t>
+          <t>-47,16; 44,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 76,69</t>
+          <t>-39,46; 79,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,57; 26,58</t>
+          <t>-64,49; 20,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 89,36</t>
+          <t>-29,18; 96,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 29,77</t>
+          <t>-36,9; 29,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,79; -11,79</t>
+          <t>-59,81; -11,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 47,81</t>
+          <t>-26,72; 49,22</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,06; -0,03</t>
+          <t>-8,03; 0,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,48; -5,78</t>
+          <t>-12,23; -5,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,14; -1,95</t>
+          <t>-9,11; -1,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 3,09</t>
+          <t>-4,44; 3,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,22; -0,79</t>
+          <t>-7,23; -0,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 0,6</t>
+          <t>-5,39; 0,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 0,63</t>
+          <t>-5,4; 0,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,03; -4,28</t>
+          <t>-9,06; -4,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,74; -1,68</t>
+          <t>-6,42; -1,86</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,97; 2,99</t>
+          <t>-53,73; 0,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,85; -48,29</t>
+          <t>-83,18; -46,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,97; -17,28</t>
+          <t>-61,5; -19,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,96; 45,76</t>
+          <t>-42,68; 44,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,17; -10,16</t>
+          <t>-67,31; -4,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,82; 9,02</t>
+          <t>-48,1; 14,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,51; 6,84</t>
+          <t>-43,75; 1,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,31; -44,36</t>
+          <t>-73,22; -43,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,85; -17,86</t>
+          <t>-51,29; -19,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,8</t>
+          <t>-1,21; 0,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; -0,7</t>
+          <t>-2,47; -0,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,37</t>
+          <t>-0,85; 1,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,25</t>
+          <t>0,44; 2,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,8</t>
+          <t>-0,9; 0,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,23</t>
+          <t>1,13; 3,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,31</t>
+          <t>-0,11; 1,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; -0,22</t>
+          <t>-1,45; -0,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,0</t>
+          <t>0,45; 1,99</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 22,54</t>
+          <t>-27,74; 23,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,44; -19,05</t>
+          <t>-54,5; -18,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 37,62</t>
+          <t>-19,06; 40,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,5; 80,2</t>
+          <t>12,15; 87,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 29,54</t>
+          <t>-26,16; 29,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,35; 118,48</t>
+          <t>33,16; 116,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 40,28</t>
+          <t>-2,54; 40,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,5; -6,44</t>
+          <t>-36,64; -5,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,32; 59,43</t>
+          <t>11,92; 61,14</t>
         </is>
       </c>
     </row>
